--- a/tspi/ciclo-2/20095495.xlsx
+++ b/tspi/ciclo-2/20095495.xlsx
@@ -11,15 +11,12 @@
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -112,6 +109,57 @@
   </si>
   <si>
     <t>Elaborar el reporte de cierre del ciclo #2.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #2 de TSPi.</t>
+  </si>
+  <si>
+    <t>Crear el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Prepararse para presentar al equipo la herramienta RedMine.</t>
+  </si>
+  <si>
+    <t>Elaborar la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el fondo del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el modelo físico de data de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Elaborar el diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el diagrama de la estructura de archivos del plug-in.</t>
+  </si>
+  <si>
+    <t>Elaborar la conclusión del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Cursar el tutorial básico de ruby.</t>
+  </si>
+  <si>
+    <t>Prepararse para presentar al equipo el framework Rails.</t>
+  </si>
+  <si>
+    <t>Mockup de la vista de la calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #2 de TSPi.</t>
   </si>
 </sst>
 </file>
@@ -343,661 +391,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ganancias"/>
-      <sheetName val="tiempo"/>
-      <sheetName val="tareas"/>
-      <sheetName val="1"/>
-      <sheetName val="2"/>
-      <sheetName val="3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Nombre</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Criterio de entrada</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Criterio de salida</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Horas estimadas</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Semana estimada</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Team Leader</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Development Manager</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>Process and Quality Manager</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Planning Manager</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>Support Manager</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>24</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Realizar el lanzamiento del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>5</v>
-          </cell>
-          <cell r="G2">
-            <v>4</v>
-          </cell>
-          <cell r="I2">
-            <v>1</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>1</v>
-          </cell>
-          <cell r="L2">
-            <v>1</v>
-          </cell>
-          <cell r="M2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>25</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Definir la estrategía de desarrolo del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>5</v>
-          </cell>
-          <cell r="G3">
-            <v>4</v>
-          </cell>
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>1</v>
-          </cell>
-          <cell r="L3">
-            <v>1</v>
-          </cell>
-          <cell r="M3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>26</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Elaborar el plan del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>2</v>
-          </cell>
-          <cell r="G4">
-            <v>4</v>
-          </cell>
-          <cell r="L4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>27</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Crear el esquema del documento de arquitectura.</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0.5</v>
-          </cell>
-          <cell r="G5">
-            <v>4</v>
-          </cell>
-          <cell r="K5">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>28</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Reunión de equipo para analizar la versión final del documento de requerimientos.</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>7.5</v>
-          </cell>
-          <cell r="G6">
-            <v>4</v>
-          </cell>
-          <cell r="I6">
-            <v>1.5</v>
-          </cell>
-          <cell r="J6">
-            <v>1.5</v>
-          </cell>
-          <cell r="K6">
-            <v>1.5</v>
-          </cell>
-          <cell r="L6">
-            <v>1.5</v>
-          </cell>
-          <cell r="M6">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>29</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Crear la agenda para la reunión #3 con el cliente.</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>0.5</v>
-          </cell>
-          <cell r="G7">
-            <v>4</v>
-          </cell>
-          <cell r="L7">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>30</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Reunión #3 con el cliente.</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>2</v>
-          </cell>
-          <cell r="G8">
-            <v>4</v>
-          </cell>
-          <cell r="I8">
-            <v>1</v>
-          </cell>
-          <cell r="L8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>31</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Prepararse para presentar al equipo la herramienta RedMine.</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="G9">
-            <v>4</v>
-          </cell>
-          <cell r="I9">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>32</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Presentar al equipo de la herramienta Redmine.</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>5</v>
-          </cell>
-          <cell r="G10">
-            <v>4</v>
-          </cell>
-          <cell r="I10">
-            <v>1</v>
-          </cell>
-          <cell r="J10">
-            <v>1</v>
-          </cell>
-          <cell r="K10">
-            <v>1</v>
-          </cell>
-          <cell r="L10">
-            <v>1</v>
-          </cell>
-          <cell r="M10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>33</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Elaborar la introducción del documento de arquitectura.</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0.5</v>
-          </cell>
-          <cell r="G11">
-            <v>4</v>
-          </cell>
-          <cell r="K11">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>34</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Elaborar el fondo del documento de arquitectura.</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>1</v>
-          </cell>
-          <cell r="G12">
-            <v>4</v>
-          </cell>
-          <cell r="K12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>35</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Elaborar el diagrama de contexto de la arquitectura.</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>3</v>
-          </cell>
-          <cell r="G13">
-            <v>4</v>
-          </cell>
-          <cell r="J13">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>36</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-          <cell r="E14">
-            <v>1</v>
-          </cell>
-          <cell r="G14">
-            <v>5</v>
-          </cell>
-          <cell r="J14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>37</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Elaborar el modelo físico de data de la arquitectura.</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-          <cell r="E15">
-            <v>4</v>
-          </cell>
-          <cell r="G15">
-            <v>5</v>
-          </cell>
-          <cell r="I15">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>38</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Elaborar el diagrama de flujo del algoritmo de calendarización.</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>4</v>
-          </cell>
-          <cell r="G16">
-            <v>5</v>
-          </cell>
-          <cell r="K16">
-            <v>2</v>
-          </cell>
-          <cell r="M16">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>39</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Elaborar el diagrama de la estructura de archivos del plug-in.</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>2</v>
-          </cell>
-          <cell r="G17">
-            <v>5</v>
-          </cell>
-          <cell r="M17">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>40</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Elaborar la conclusión del documento de arquitectura.</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>0.5</v>
-          </cell>
-          <cell r="G18">
-            <v>5</v>
-          </cell>
-          <cell r="K18">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>41</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Cursar el tutorial básico de ruby.</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-          <cell r="E19">
-            <v>4</v>
-          </cell>
-          <cell r="G19">
-            <v>5</v>
-          </cell>
-          <cell r="I19">
-            <v>1</v>
-          </cell>
-          <cell r="J19">
-            <v>1</v>
-          </cell>
-          <cell r="K19">
-            <v>1</v>
-          </cell>
-          <cell r="L19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>42</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Prepararse para presentar al equipo el framework Rails.</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-          <cell r="G20">
-            <v>5</v>
-          </cell>
-          <cell r="M20">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>43</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Presentar al equipo el framework Rails.</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-          <cell r="E21">
-            <v>5</v>
-          </cell>
-          <cell r="G21">
-            <v>5</v>
-          </cell>
-          <cell r="I21">
-            <v>1</v>
-          </cell>
-          <cell r="J21">
-            <v>1</v>
-          </cell>
-          <cell r="K21">
-            <v>1</v>
-          </cell>
-          <cell r="L21">
-            <v>1</v>
-          </cell>
-          <cell r="M21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>44</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Mockup de la vista de la calendarización.</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22">
-            <v>5</v>
-          </cell>
-          <cell r="G22">
-            <v>5</v>
-          </cell>
-          <cell r="J22">
-            <v>2.5</v>
-          </cell>
-          <cell r="L22">
-            <v>2.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>45</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Elaborar el reporte de cierre del ciclo #2 de TSPi.</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>5</v>
-          </cell>
-          <cell r="G23">
-            <v>5</v>
-          </cell>
-          <cell r="I23">
-            <v>1</v>
-          </cell>
-          <cell r="J23">
-            <v>1</v>
-          </cell>
-          <cell r="K23">
-            <v>1</v>
-          </cell>
-          <cell r="L23">
-            <v>1</v>
-          </cell>
-          <cell r="M23">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1343,45 +736,35 @@
       <c r="A2" s="8">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="str">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Realizar el lanzamiento del ciclo #2 de TSPi.</v>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="9">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D2" s="9">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F2" s="11">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <f>LOOKUP(A2,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
       <c r="M2" s="4"/>
@@ -2390,45 +1773,35 @@
       <c r="A3" s="8">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="str">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Definir la estrategía de desarrolo del ciclo #2 de TSPi.</v>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="9">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F3" s="11">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <f>LOOKUP(A3,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
       <c r="M3" s="4"/>
@@ -3437,45 +2810,35 @@
       <c r="A4" s="8">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="str">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el plan del ciclo #2 de TSPi.</v>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="9">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D4" s="9">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>2</v>
       </c>
       <c r="F4" s="11">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>2</v>
       </c>
       <c r="L4" s="4">
-        <f>LOOKUP(A4,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M4" s="4"/>
@@ -4484,45 +3847,35 @@
       <c r="A5" s="8">
         <v>27</v>
       </c>
-      <c r="B5" s="9" t="str">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Crear el esquema del documento de arquitectura.</v>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="9">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D5" s="9">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E5" s="10">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F5" s="11">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0.5</v>
       </c>
       <c r="K5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>LOOKUP(A5,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M5" s="4"/>
@@ -5531,45 +4884,35 @@
       <c r="A6" s="8">
         <v>28</v>
       </c>
-      <c r="B6" s="9" t="str">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Reunión de equipo para analizar la versión final del documento de requerimientos.</v>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="9">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D6" s="9">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>7.5</v>
       </c>
       <c r="F6" s="11">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1.5</v>
       </c>
       <c r="I6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1.5</v>
       </c>
       <c r="J6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1.5</v>
       </c>
       <c r="K6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1.5</v>
       </c>
       <c r="L6" s="4">
-        <f>LOOKUP(A6,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1.5</v>
       </c>
       <c r="M6" s="4"/>
@@ -6578,45 +5921,35 @@
       <c r="A7" s="8">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="str">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Crear la agenda para la reunión #3 con el cliente.</v>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="9">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F7" s="11">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0.5</v>
       </c>
       <c r="L7" s="4">
-        <f>LOOKUP(A7,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M7" s="4"/>
@@ -7625,45 +6958,35 @@
       <c r="A8" s="8">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="str">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Reunión #3 con el cliente.</v>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="9">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D8" s="9">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>2</v>
       </c>
       <c r="F8" s="11">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <f>LOOKUP(A8,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M8" s="4"/>
@@ -8672,45 +7995,35 @@
       <c r="A9" s="8">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="str">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Prepararse para presentar al equipo la herramienta RedMine.</v>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="9">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>3</v>
       </c>
       <c r="F9" s="11">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>3</v>
       </c>
       <c r="I9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <f>LOOKUP(A9,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M9" s="4"/>
@@ -9719,45 +9032,35 @@
       <c r="A10" s="8">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="str">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Presentar al equipo de la herramienta Redmine.</v>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="9">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D10" s="9">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E10" s="10">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F10" s="11">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L10" s="4">
-        <f>LOOKUP(A10,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
       <c r="M10" s="4"/>
@@ -10766,45 +10069,35 @@
       <c r="A11" s="8">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="str">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar la introducción del documento de arquitectura.</v>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="9">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D11" s="9">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E11" s="10">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F11" s="11">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0.5</v>
       </c>
       <c r="K11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f>LOOKUP(A11,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4"/>
@@ -11813,45 +11106,35 @@
       <c r="A12" s="8">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="str">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el fondo del documento de arquitectura.</v>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="9">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D12" s="9">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E12" s="10">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>1</v>
       </c>
       <c r="F12" s="11">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>LOOKUP(A12,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M12" s="4"/>
@@ -12860,45 +12143,35 @@
       <c r="A13" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="str">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el diagrama de contexto de la arquitectura.</v>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="9">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D13" s="9">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E13" s="10">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>3</v>
       </c>
       <c r="F13" s="11">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>4</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>3</v>
       </c>
       <c r="J13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>LOOKUP(A13,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M13" s="4"/>
@@ -13907,45 +13180,35 @@
       <c r="A14" s="8">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="str">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</v>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="9">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D14" s="9">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E14" s="10">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>1</v>
       </c>
       <c r="F14" s="11">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>LOOKUP(A14,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M14" s="4"/>
@@ -14954,45 +14217,35 @@
       <c r="A15" s="8">
         <v>37</v>
       </c>
-      <c r="B15" s="9" t="str">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el modelo físico de data de la arquitectura.</v>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="9">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D15" s="9">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>4</v>
       </c>
       <c r="F15" s="11">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f>LOOKUP(A15,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
       <c r="M15" s="4"/>
@@ -16001,45 +15254,35 @@
       <c r="A16" s="8">
         <v>38</v>
       </c>
-      <c r="B16" s="9" t="str">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el diagrama de flujo del algoritmo de calendarización.</v>
+      <c r="B16" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="9">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D16" s="9">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E16" s="10">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>4</v>
       </c>
       <c r="F16" s="11">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>2</v>
       </c>
       <c r="K16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f>LOOKUP(A16,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>2</v>
       </c>
       <c r="M16" s="4"/>
@@ -17048,45 +16291,35 @@
       <c r="A17" s="8">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="str">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el diagrama de la estructura de archivos del plug-in.</v>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="9">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D17" s="9">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E17" s="10">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>2</v>
       </c>
       <c r="F17" s="11">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>LOOKUP(A17,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>2</v>
       </c>
       <c r="M17" s="4"/>
@@ -18095,44 +17328,34 @@
       <c r="A18" s="8">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="str">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar la conclusión del documento de arquitectura.</v>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="9">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D18" s="9">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E18" s="10">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>0.5</v>
       </c>
       <c r="F18" s="11">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0.5</v>
       </c>
       <c r="K18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>LOOKUP(A18,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
     </row>
@@ -18140,44 +17363,34 @@
       <c r="A19" s="8">
         <v>41</v>
       </c>
-      <c r="B19" s="9" t="str">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Cursar el tutorial básico de ruby.</v>
+      <c r="B19" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="9">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D19" s="9">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E19" s="10">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>4</v>
       </c>
       <c r="F19" s="11">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L19" s="4">
-        <f>LOOKUP(A19,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
     </row>
@@ -18185,44 +17398,34 @@
       <c r="A20" s="8">
         <v>42</v>
       </c>
-      <c r="B20" s="9" t="str">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Prepararse para presentar al equipo el framework Rails.</v>
+      <c r="B20" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="9">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D20" s="9">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E20" s="10">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>3</v>
       </c>
       <c r="F20" s="11">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f>LOOKUP(A20,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>3</v>
       </c>
     </row>
@@ -18230,44 +17433,34 @@
       <c r="A21" s="8">
         <v>43</v>
       </c>
-      <c r="B21" s="9" t="str">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Presentar al equipo el framework Rails.</v>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="9">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D21" s="9">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E21" s="10">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F21" s="11">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L21" s="4">
-        <f>LOOKUP(A21,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
     </row>
@@ -18275,44 +17468,34 @@
       <c r="A22" s="8">
         <v>44</v>
       </c>
-      <c r="B22" s="9" t="str">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Mockup de la vista de la calendarización.</v>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="9">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D22" s="9">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E22" s="10">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F22" s="11">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>2.5</v>
       </c>
       <c r="J22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>2.5</v>
       </c>
       <c r="L22" s="4">
-        <f>LOOKUP(A22,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>0</v>
       </c>
     </row>
@@ -18320,44 +17503,34 @@
       <c r="A23" s="8">
         <v>45</v>
       </c>
-      <c r="B23" s="9" t="str">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$B:$B)</f>
-        <v>Elaborar el reporte de cierre del ciclo #2 de TSPi.</v>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="9">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$C:$C)</f>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$D:$D)</f>
         <v>0</v>
       </c>
       <c r="E23" s="10">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$E:$E)</f>
         <v>5</v>
       </c>
       <c r="F23" s="11">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$G:$G)</f>
         <v>5</v>
       </c>
       <c r="H23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$I:$I)</f>
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$J:$J)</f>
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$K:$K)</f>
         <v>1</v>
       </c>
       <c r="K23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$L:$L)</f>
         <v>1</v>
       </c>
       <c r="L23" s="4">
-        <f>LOOKUP(A23,'[1]2'!$A:$A,'[1]2'!$M:$M)</f>
         <v>1</v>
       </c>
     </row>

--- a/tspi/ciclo-2/20095495.xlsx
+++ b/tspi/ciclo-2/20095495.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gogi\Documents\GitHub\PPR\tspi\ciclo-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -161,16 +166,22 @@
   <si>
     <t>Elaborar el reporte de cierre del ciclo #2 de TSPi.</t>
   </si>
+  <si>
+    <t>Consolidando las tácticas y vistas que vamos a utilizar en el documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>4 y 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -247,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -316,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,11 +404,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +490,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,6 +525,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,14 +701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -696,7 +720,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="25.5">
+    <row r="2" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>24</v>
       </c>
@@ -1769,7 +1793,7 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="25.5">
+    <row r="3" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>25</v>
       </c>
@@ -2806,7 +2830,7 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013">
+    <row r="4" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>26</v>
       </c>
@@ -3843,7 +3867,7 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="25.5">
+    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>27</v>
       </c>
@@ -4880,7 +4904,7 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="38.25">
+    <row r="6" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>28</v>
       </c>
@@ -5917,7 +5941,7 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="25.5">
+    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>29</v>
       </c>
@@ -6954,7 +6978,7 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013">
+    <row r="8" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>30</v>
       </c>
@@ -7991,7 +8015,7 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" ht="25.5">
+    <row r="9" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>31</v>
       </c>
@@ -9028,7 +9052,7 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" ht="25.5">
+    <row r="10" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>32</v>
       </c>
@@ -10065,7 +10089,7 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" ht="25.5">
+    <row r="11" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>33</v>
       </c>
@@ -11102,7 +11126,7 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013" ht="25.5">
+    <row r="12" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>34</v>
       </c>
@@ -12139,7 +12163,7 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" ht="25.5">
+    <row r="13" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>35</v>
       </c>
@@ -13176,7 +13200,7 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013" ht="25.5">
+    <row r="14" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>36</v>
       </c>
@@ -14213,7 +14237,7 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013" ht="25.5">
+    <row r="15" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>37</v>
       </c>
@@ -15250,7 +15274,7 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013" ht="25.5">
+    <row r="16" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>38</v>
       </c>
@@ -16287,7 +16311,7 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013" ht="25.5">
+    <row r="17" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>39</v>
       </c>
@@ -17324,7 +17348,7 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013" ht="25.5">
+    <row r="18" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>40</v>
       </c>
@@ -17359,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1013">
+    <row r="19" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>41</v>
       </c>
@@ -17394,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1013" ht="25.5">
+    <row r="20" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>42</v>
       </c>
@@ -17429,7 +17453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1013">
+    <row r="21" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>43</v>
       </c>
@@ -17464,7 +17488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1013">
+    <row r="22" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>44</v>
       </c>
@@ -17499,7 +17523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1013" ht="25.5">
+    <row r="23" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>45</v>
       </c>
@@ -17545,14 +17569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17560,7 +17584,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17571,7 +17595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>24</v>
       </c>
@@ -17583,7 +17607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -17595,7 +17619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>28</v>
       </c>
@@ -17607,7 +17631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1">
+    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>30</v>
       </c>
@@ -17619,7 +17643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>32</v>
       </c>
@@ -17631,7 +17655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>35</v>
       </c>
@@ -17643,90 +17667,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1">
-      <c r="A8" s="31">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <f>126/60</f>
+        <v>2.1</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
         <v>38</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUMIF(logt!$G:$G,A8,logt!$F:$F)/60</f>
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="C8" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>41</v>
       </c>
       <c r="B9" s="4">
         <f>SUMIF(logt!$G:$G,A9,logt!$F:$F)/60</f>
-        <v>1.05</v>
-      </c>
-      <c r="C9" s="4">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C9" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4">
         <f>SUMIF(logt!$G:$G,A10,logt!$F:$F)/60</f>
-        <v>0.53333333333333333</v>
+        <v>1.05</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4">
         <f>SUMIF(logt!$G:$G,A11,logt!$F:$F)/60</f>
-        <v>1.75</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4">
         <f>SUMIF(logt!$G:$G,A12,logt!$F:$F)/60</f>
-        <v>0.95</v>
+        <v>1.75</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUMIF(logt!$G:$G,A13,logt!$F:$F)/60</f>
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -17739,14 +17770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="21" customWidth="1"/>
@@ -17758,7 +17789,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -17784,7 +17815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>41924</v>
       </c>
@@ -17811,7 +17842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>41924</v>
       </c>
@@ -17838,7 +17869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5">
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>41930</v>
       </c>
@@ -17865,7 +17896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1">
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>41931</v>
       </c>
@@ -17892,7 +17923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>41932</v>
       </c>
@@ -17919,7 +17950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>41934</v>
       </c>
@@ -17946,7 +17977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>41934</v>
       </c>
@@ -17973,7 +18004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
         <v>41936</v>
       </c>
@@ -18000,7 +18031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>41938</v>
       </c>
@@ -18027,7 +18058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="25.5">
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>41938</v>
       </c>
@@ -18054,7 +18085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>41938</v>
       </c>
@@ -18081,15 +18112,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="18"/>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="28">
+        <v>41939</v>
+      </c>
+      <c r="B13" s="30">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" ref="F13" si="1">((HOUR(D13)-HOUR(C13))*60)+(MINUTE(D13)-MINUTE(C13))-E13</f>
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -18097,7 +18147,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -18105,7 +18155,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="22"/>
       <c r="C16" s="17"/>
@@ -18113,7 +18163,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1">
+    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
@@ -18123,7 +18173,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -18131,7 +18181,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -18139,7 +18189,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -18147,7 +18197,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -18155,7 +18205,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -18163,7 +18213,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -18171,7 +18221,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -18179,7 +18229,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -18187,7 +18237,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -18195,7 +18245,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -18203,7 +18253,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -18211,7 +18261,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -18219,7 +18269,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -18227,7 +18277,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -18235,7 +18285,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
@@ -18243,7 +18293,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="22"/>
       <c r="C35" s="17"/>

--- a/tspi/ciclo-2/20095495.xlsx
+++ b/tspi/ciclo-2/20095495.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -166,12 +166,6 @@
   <si>
     <t>Elaborar el reporte de cierre del ciclo #2 de TSPi.</t>
   </si>
-  <si>
-    <t>Consolidando las tácticas y vistas que vamos a utilizar en el documento de arquitectura.</t>
-  </si>
-  <si>
-    <t>4 y 5</t>
-  </si>
 </sst>
 </file>
 
@@ -258,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,9 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17570,10 +17561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17667,37 +17658,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>36</v>
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>38</v>
       </c>
       <c r="B8" s="4">
-        <f>126/60</f>
-        <v>2.1</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>49</v>
+        <f>SUMIF(logt!$G:$G,A8,logt!$F:$F)/60</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C8" s="31">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
-        <v>38</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>41</v>
       </c>
       <c r="B9" s="4">
         <f>SUMIF(logt!$G:$G,A9,logt!$F:$F)/60</f>
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="C9" s="31">
+        <v>1.05</v>
+      </c>
+      <c r="C9" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4">
         <f>SUMIF(logt!$G:$G,A10,logt!$F:$F)/60</f>
-        <v>1.05</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -17705,11 +17696,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4">
         <f>SUMIF(logt!$G:$G,A11,logt!$F:$F)/60</f>
-        <v>0.53333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
@@ -17717,27 +17708,20 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4">
         <f>SUMIF(logt!$G:$G,A12,logt!$F:$F)/60</f>
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4">
-        <f>SUMIF(logt!$G:$G,A13,logt!$F:$F)/60</f>
-        <v>0.95</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -17754,11 +17738,6 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17771,10 +17750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18112,32 +18091,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
-        <v>41939</v>
-      </c>
-      <c r="B13" s="30">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.67569444444444438</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" ref="F13" si="1">((HOUR(D13)-HOUR(C13))*60)+(MINUTE(D13)-MINUTE(C13))-E13</f>
-        <v>13</v>
-      </c>
-      <c r="G13" s="4">
-        <v>36</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>48</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
@@ -18155,23 +18115,23 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="18"/>
+    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="16"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
@@ -18293,14 +18253,6 @@
       <c r="E34" s="22"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="18"/>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/tspi/ciclo-2/20095495.xlsx
+++ b/tspi/ciclo-2/20095495.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gogi\Documents\GitHub\PPR\tspi\ciclo-2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -166,16 +161,118 @@
   <si>
     <t>Elaborar el reporte de cierre del ciclo #2 de TSPi.</t>
   </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente. Cada miembro del equipo ha leído el capítulo correspondiente a su rol.</t>
+  </si>
+  <si>
+    <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado y actualizado el plan de un ciclo preevio.</t>
+  </si>
+  <si>
+    <t>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</t>
+  </si>
+  <si>
+    <t>Se creó el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha creado la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se creó un documento el cuál especifica las tácticas y patrones que serán utilizados, así como también, las vistas y estilos que serán utilizadas para demostrar el uso de las tácticas y patrones.</t>
+  </si>
+  <si>
+    <t>Se ha creado la plantilla para las agendas de las reuniones con los cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se ha creado y enviado la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</t>
+  </si>
+  <si>
+    <t>Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo creó un resumen con los detalles de la presentación.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura. Se ha elaborado la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró el fondo del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró el diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se documentaron las tácticas y patrones a utilizar.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama de la estructura de archivos.</t>
+  </si>
+  <si>
+    <t>Se han elaborado el fondo, documentado las tácticas y patrones, y diagramado las vistas de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró la conclusión del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo creó un resumen con los detalles del tutorial.</t>
+  </si>
+  <si>
+    <t>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo ha creado un resumen con los detalles del tutorial básico de ruby. Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista de la calendarización.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -407,7 +504,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,7 +546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,10 +578,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +612,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,14 +787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -711,7 +806,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,18 +842,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1013" ht="38.25">
       <c r="A2" s="8">
         <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
+      <c r="C2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="10">
         <v>5</v>
@@ -1784,18 +1879,18 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1013" ht="38.25">
       <c r="A3" s="8">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
+      <c r="C3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="10">
         <v>5</v>
@@ -2821,18 +2916,18 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1013" ht="38.25">
       <c r="A4" s="8">
         <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="10">
         <v>2</v>
@@ -3858,18 +3953,16 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1013" ht="25.5">
       <c r="A5" s="8">
         <v>27</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="10">
         <v>0.5</v>
@@ -4895,18 +4988,18 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1013" ht="38.25">
       <c r="A6" s="8">
         <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
+      <c r="C6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="10">
         <v>7.5</v>
@@ -5932,18 +6025,18 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1013" ht="38.25">
       <c r="A7" s="8">
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -6969,18 +7062,18 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1013" ht="38.25">
       <c r="A8" s="8">
         <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
+      <c r="C8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
@@ -8006,18 +8099,16 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1013" ht="25.5">
       <c r="A9" s="8">
         <v>31</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
@@ -9043,18 +9134,18 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1013" ht="38.25">
       <c r="A10" s="8">
         <v>32</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="10">
         <v>5</v>
@@ -10080,18 +10171,18 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1013" ht="38.25">
       <c r="A11" s="8">
         <v>33</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
+      <c r="C11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="10">
         <v>0.5</v>
@@ -11117,18 +11208,18 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1013" ht="51">
       <c r="A12" s="8">
         <v>34</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
+      <c r="C12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -12154,18 +12245,18 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1013" ht="38.25">
       <c r="A13" s="8">
         <v>35</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="10">
         <v>3</v>
@@ -13191,18 +13282,18 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1013" ht="38.25">
       <c r="A14" s="8">
         <v>36</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -14228,18 +14319,18 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1013" ht="38.25">
       <c r="A15" s="8">
         <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
+      <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="10">
         <v>4</v>
@@ -15265,18 +15356,18 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1013" ht="38.25">
       <c r="A16" s="8">
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="10">
         <v>4</v>
@@ -16302,18 +16393,18 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1013" ht="38.25">
       <c r="A17" s="8">
         <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="10">
         <v>2</v>
@@ -17339,18 +17430,18 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1013" ht="38.25">
       <c r="A18" s="8">
         <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
+      <c r="C18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="E18" s="10">
         <v>0.5</v>
@@ -17374,18 +17465,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1013" ht="25.5">
       <c r="A19" s="8">
         <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E19" s="10">
         <v>4</v>
@@ -17409,18 +17498,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1013" ht="25.5">
       <c r="A20" s="8">
         <v>42</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="E20" s="10">
         <v>3</v>
@@ -17444,18 +17531,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1013" ht="51">
       <c r="A21" s="8">
         <v>43</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="10">
         <v>5</v>
@@ -17479,18 +17566,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1013" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1013" ht="38.25">
       <c r="A22" s="8">
         <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
+      <c r="C22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="E22" s="10">
         <v>5</v>
@@ -17514,18 +17601,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1013" ht="38.25">
       <c r="A23" s="8">
         <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
+      <c r="C23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="E23" s="10">
         <v>5</v>
@@ -17560,14 +17647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17575,7 +17662,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17586,7 +17673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>24</v>
       </c>
@@ -17598,7 +17685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -17610,7 +17697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>28</v>
       </c>
@@ -17622,7 +17709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="12" customFormat="1">
       <c r="A5" s="31">
         <v>30</v>
       </c>
@@ -17634,7 +17721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>32</v>
       </c>
@@ -17646,7 +17733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>35</v>
       </c>
@@ -17658,7 +17745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="12" customFormat="1">
       <c r="A8" s="31">
         <v>38</v>
       </c>
@@ -17670,7 +17757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>41</v>
       </c>
@@ -17682,7 +17769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>43</v>
       </c>
@@ -17694,7 +17781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>44</v>
       </c>
@@ -17706,7 +17793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>45</v>
       </c>
@@ -17718,22 +17805,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17749,14 +17836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="21" customWidth="1"/>
@@ -17768,7 +17855,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -17794,7 +17881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="23">
         <v>41924</v>
       </c>
@@ -17821,7 +17908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="23">
         <v>41924</v>
       </c>
@@ -17848,7 +17935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="23">
         <v>41930</v>
       </c>
@@ -17875,7 +17962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="12" customFormat="1">
       <c r="A5" s="24">
         <v>41931</v>
       </c>
@@ -17902,7 +17989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="27">
         <v>41932</v>
       </c>
@@ -17929,7 +18016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="27">
         <v>41934</v>
       </c>
@@ -17956,7 +18043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="27">
         <v>41934</v>
       </c>
@@ -17983,7 +18070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="28">
         <v>41936</v>
       </c>
@@ -18010,7 +18097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="28">
         <v>41938</v>
       </c>
@@ -18037,7 +18124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="25.5">
       <c r="A11" s="28">
         <v>41938</v>
       </c>
@@ -18064,7 +18151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="28">
         <v>41938</v>
       </c>
@@ -18091,7 +18178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="27"/>
       <c r="B13" s="22"/>
       <c r="C13" s="17"/>
@@ -18099,7 +18186,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="27"/>
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
@@ -18107,7 +18194,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="27"/>
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
@@ -18115,7 +18202,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="12" customFormat="1">
       <c r="A18" s="24"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
@@ -18125,7 +18212,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="27"/>
       <c r="B19" s="22"/>
       <c r="C19" s="17"/>
@@ -18133,7 +18220,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="27"/>
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
@@ -18141,7 +18228,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="27"/>
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
@@ -18149,7 +18236,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="27"/>
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
@@ -18157,7 +18244,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="27"/>
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
@@ -18165,7 +18252,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="27"/>
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
@@ -18173,7 +18260,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
@@ -18181,7 +18268,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
@@ -18189,7 +18276,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="27"/>
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
@@ -18197,7 +18284,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
@@ -18205,7 +18292,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -18213,7 +18300,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="27"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -18221,7 +18308,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
@@ -18229,7 +18316,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="27"/>
       <c r="B32" s="22"/>
       <c r="C32" s="17"/>
@@ -18237,7 +18324,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="27"/>
       <c r="B33" s="22"/>
       <c r="C33" s="17"/>
@@ -18245,7 +18332,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="27"/>
       <c r="B34" s="22"/>
       <c r="C34" s="17"/>
